--- a/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
+++ b/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T11:41:55+00:00</t>
+    <t>2025-11-12T13:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
+++ b/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:38:48+00:00</t>
+    <t>2025-11-12T13:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
+++ b/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:47:08+00:00</t>
+    <t>2025-11-12T16:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
+++ b/currentbuild/StructureDefinition-ServiceDescriptionMarkdown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T16:10:30+00:00</t>
+    <t>2025-11-14T11:11:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
